--- a/错误日志存储.xlsx
+++ b/错误日志存储.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111">
   <si>
     <t>序号</t>
   </si>
@@ -331,6 +331,24 @@
   </si>
   <si>
     <t>.\\log_Page\\Parameter\\Frm_production_Records_1\\</t>
+  </si>
+  <si>
+    <t>烧结生产信息记录模型烧结停机记录修改按钮弹出框</t>
+  </si>
+  <si>
+    <t>.\\log_Page\\Parameter\\Frm_production_Records_2\\</t>
+  </si>
+  <si>
+    <t>烧结事件添加按钮弹出框</t>
+  </si>
+  <si>
+    <t>.\\log_Page\\Parameter\\Frm_production_Records_3\\</t>
+  </si>
+  <si>
+    <t>烧结事件修改按钮弹出框</t>
+  </si>
+  <si>
+    <t>.\\log_Page\\Parameter\\Frm_production_Records_4\\</t>
   </si>
 </sst>
 </file>
@@ -338,8 +356,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -368,6 +386,80 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -385,7 +477,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -393,7 +485,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -407,15 +499,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -427,74 +513,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -505,187 +523,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,11 +717,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -725,18 +758,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -756,6 +782,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -771,28 +806,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -804,10 +822,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -816,16 +834,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -837,112 +855,112 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1299,16 +1317,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="41.5" customWidth="1"/>
+    <col min="3" max="3" width="63.125" customWidth="1"/>
     <col min="4" max="4" width="71.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1932,6 +1950,39 @@
       </c>
       <c r="D50" t="s">
         <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="B51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" t="s">
+        <v>105</v>
+      </c>
+      <c r="D51" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="B52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" t="s">
+        <v>107</v>
+      </c>
+      <c r="D52" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="B53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" t="s">
+        <v>109</v>
+      </c>
+      <c r="D53" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/错误日志存储.xlsx
+++ b/错误日志存储.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113">
   <si>
     <t>序号</t>
   </si>
@@ -201,10 +201,16 @@
     <t>.\\log_Page\\Analysis\\Frm_Production_state_Class\\</t>
   </si>
   <si>
+    <t>生产状态数据分析月弹出窗</t>
+  </si>
+  <si>
+    <t>.\\log_Page\\Analysis\\Frm_Production_state_Mon\\</t>
+  </si>
+  <si>
     <t>生产状态数据分析堆弹出窗</t>
   </si>
   <si>
-    <t>Frm_Production_state_Heap</t>
+    <t>.\\log_Page\\Analysis\\Frm_Production_state_Heap\\</t>
   </si>
   <si>
     <t>过程优化</t>
@@ -358,8 +364,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -393,6 +399,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -409,9 +423,32 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -430,31 +467,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -468,11 +483,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -484,35 +498,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -523,55 +529,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,25 +673,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,7 +691,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,85 +709,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -714,6 +720,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -728,15 +743,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -756,13 +762,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -786,22 +796,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -814,6 +809,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -822,10 +828,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -834,16 +840,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -855,112 +861,112 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1317,10 +1323,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1723,18 +1729,18 @@
     </row>
     <row r="30" spans="2:4">
       <c r="B30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" t="s">
         <v>63</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>64</v>
-      </c>
-      <c r="D30" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C31" t="s">
         <v>66</v>
@@ -1745,7 +1751,7 @@
     </row>
     <row r="32" spans="2:4">
       <c r="B32" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C32" t="s">
         <v>68</v>
@@ -1756,7 +1762,7 @@
     </row>
     <row r="33" spans="2:4">
       <c r="B33" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C33" t="s">
         <v>70</v>
@@ -1767,7 +1773,7 @@
     </row>
     <row r="34" spans="2:4">
       <c r="B34" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="C34" t="s">
         <v>72</v>
@@ -1795,7 +1801,7 @@
         <v>76</v>
       </c>
       <c r="D36" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="2:4">
@@ -1803,15 +1809,15 @@
         <v>7</v>
       </c>
       <c r="C37" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" t="s">
         <v>77</v>
-      </c>
-      <c r="D37" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
         <v>79</v>
@@ -1822,7 +1828,7 @@
     </row>
     <row r="39" spans="2:4">
       <c r="B39" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C39" t="s">
         <v>81</v>
@@ -1833,7 +1839,7 @@
     </row>
     <row r="40" spans="2:4">
       <c r="B40" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C40" t="s">
         <v>83</v>
@@ -1844,7 +1850,7 @@
     </row>
     <row r="41" spans="2:4">
       <c r="B41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C41" t="s">
         <v>85</v>
@@ -1855,7 +1861,7 @@
     </row>
     <row r="42" spans="2:4">
       <c r="B42" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C42" t="s">
         <v>87</v>
@@ -1866,7 +1872,7 @@
     </row>
     <row r="43" spans="2:4">
       <c r="B43" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C43" t="s">
         <v>89</v>
@@ -1877,7 +1883,7 @@
     </row>
     <row r="44" spans="2:4">
       <c r="B44" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C44" t="s">
         <v>91</v>
@@ -1888,7 +1894,7 @@
     </row>
     <row r="45" spans="2:4">
       <c r="B45" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C45" t="s">
         <v>93</v>
@@ -1899,12 +1905,12 @@
     </row>
     <row r="46" spans="2:4">
       <c r="B46" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="C46" t="s">
         <v>95</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1915,7 +1921,7 @@
       <c r="C47" t="s">
         <v>97</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="2" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1932,7 +1938,7 @@
     </row>
     <row r="49" spans="2:4">
       <c r="B49" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C49" t="s">
         <v>101</v>
@@ -1983,13 +1989,24 @@
       </c>
       <c r="D53" t="s">
         <v>110</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="B54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" t="s">
+        <v>111</v>
+      </c>
+      <c r="D54" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D7" r:id="rId1" display="\\log_Page\\Parametery\\Ingredient_Protect_Pop_ADD\\"/>
     <hyperlink ref="D3" r:id="rId2" display="\\log_Page\\Quality\\MIXHMICAL_Page\\"/>
-    <hyperlink ref="D46" r:id="rId3" display=".\\log_Page\\Quality\\Balance_Mine\\"/>
+    <hyperlink ref="D47" r:id="rId3" display=".\\log_Page\\Quality\\Balance_Mine\\"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/错误日志存储.xlsx
+++ b/错误日志存储.xlsx
@@ -1326,7 +1326,7 @@
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
